--- a/BalanceInfo/2.3 Players Patch - Balance Design.xlsx
+++ b/BalanceInfo/2.3 Players Patch - Balance Design.xlsx
@@ -28,7 +28,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Class Compare'!$A$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Costs!$A$1:$I$162</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Health!$A$1:$P$162</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Research!$A$1:$W$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Research!$A$1:$W$115</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Speeds!$A$1:$J$162</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Tech Tree'!$A$1:$J$1</definedName>
   </definedNames>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1517" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1519" uniqueCount="488">
   <si>
     <t>2.3 Players Patch Balance Design</t>
   </si>
@@ -1500,6 +1500,12 @@
   </si>
   <si>
     <t>Ions/HMF</t>
+  </si>
+  <si>
+    <t>kus_plasmabomblauncher</t>
+  </si>
+  <si>
+    <t>Singleplayer only</t>
   </si>
 </sst>
 </file>
@@ -15560,7 +15566,7 @@
   <sheetPr codeName="Sheet7">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:W114"/>
+  <dimension ref="A1:W115"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -19404,8 +19410,52 @@
         <v>113</v>
       </c>
     </row>
+    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A115" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="B115" t="s">
+        <v>487</v>
+      </c>
+      <c r="H115" s="4">
+        <v>1000</v>
+      </c>
+      <c r="I115" s="23">
+        <v>75</v>
+      </c>
+      <c r="J115" s="11">
+        <f t="shared" ref="J115" si="51">IFERROR(I115*$U$1,"")</f>
+        <v>53.124999975000001</v>
+      </c>
+      <c r="K115" s="11">
+        <f t="shared" ref="K115" si="52">IFERROR(I115*$V$1,"")</f>
+        <v>43.333333349999997</v>
+      </c>
+      <c r="L115" s="11">
+        <f t="shared" ref="L115" si="53">IFERROR(I115*$W$1,"")</f>
+        <v>37.5</v>
+      </c>
+      <c r="M115" s="11">
+        <v>300</v>
+      </c>
+      <c r="N115" s="11">
+        <f t="shared" ref="N115" si="54">M115/2</f>
+        <v>150</v>
+      </c>
+      <c r="O115" s="11">
+        <f t="shared" ref="O115" si="55">M115/3</f>
+        <v>100</v>
+      </c>
+      <c r="P115" s="12">
+        <f t="shared" ref="P115" si="56">M115/4</f>
+        <v>75</v>
+      </c>
+      <c r="Q115">
+        <v>114</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:W1"/>
+  <autoFilter ref="A1:W115"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/BalanceInfo/2.3 Players Patch - Balance Design.xlsx
+++ b/BalanceInfo/2.3 Players Patch - Balance Design.xlsx
@@ -1985,7 +1985,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2020,7 +2022,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="36">
-        <v>43312</v>
+        <v>43314</v>
       </c>
       <c r="C5" s="37" t="s">
         <v>6</v>
